--- a/Book 3.xlsx
+++ b/Book 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E4F392-86B5-481B-9599-D9E867DD2F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A59CD5-3C31-4F8C-BE5B-E297E610CD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{32950DC5-27BC-4A9B-A4E5-5B9A08C53B4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="222">
   <si>
     <t xml:space="preserve">Functionality id </t>
   </si>
@@ -42,15 +42,9 @@
     <t>Test case name</t>
   </si>
   <si>
-    <t>precondtioni</t>
-  </si>
-  <si>
     <t>expected result</t>
   </si>
   <si>
-    <t>Actual resulat</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -255,9 +249,6 @@
     <t>its not to open this page</t>
   </si>
   <si>
-    <t xml:space="preserve">check to cloce button </t>
-  </si>
-  <si>
     <t xml:space="preserve">1)https://www.saucedemo.com/ 2)press enter key                                  3)click on  login button                                     4) cilck  on side menu                          5) click on close  button </t>
   </si>
   <si>
@@ -639,9 +630,6 @@
     <t>1)https://www.saucedemo.com/ 2)press enter key                                  3)click on  login button                                                                   4) click on name of product               5) click on remove button</t>
   </si>
   <si>
-    <t xml:space="preserve">1)https://www.saucedemo.com/ 2)press enter key                                  3)click on  login button                                                  4)  click on name of productdetils              5) click on remove nutton     </t>
-  </si>
-  <si>
     <t>1)https://www.saucedemo.com/ 2)press enter key                                  3)click on  login button                                                      4) click on image detils                                   5) click on remove</t>
   </si>
   <si>
@@ -652,6 +640,66 @@
   </si>
   <si>
     <t xml:space="preserve">1)https://www.saucedemo.com/ 2)press enter key                                  3)click on  login button                       4)click on name of  produt page                                               5) click  remove button    </t>
+  </si>
+  <si>
+    <t>preconditionl</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>check login button with null/  balnk value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its disply proper validation message </t>
+  </si>
+  <si>
+    <t>not to display proper validation message it also password in red color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as per expected Result but not to disply proper details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check  close button </t>
+  </si>
+  <si>
+    <t>its must be clicking on close button</t>
+  </si>
+  <si>
+    <t>its must be open add to card page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> remove button must be proper working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  click finish button&amp;order  must be proper working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back home it must be proper working </t>
+  </si>
+  <si>
+    <t>Browser,internet webside must be in working condition</t>
+  </si>
+  <si>
+    <t>Browser,internet and webside must be in working condition</t>
+  </si>
+  <si>
+    <t>Browser,interne  and webside must be in working condition</t>
+  </si>
+  <si>
+    <t>not to dispaly proper validation message it also password in red color</t>
+  </si>
+  <si>
+    <t>not to display proper validation message it also user name  in red color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not to display proper validation  message and also some message inside textbox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not to disply proper validation message  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)https://www.saucedemo.com/ 2)press enter key                                  3)click on  login button                                                  4)  click on name of product detils              5) click on remove nutton     </t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FD45AC-D7AA-45A2-97FE-DEDF060189A8}">
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1205,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1166,22 +1214,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -1193,25 +1241,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1222,25 +1270,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1251,25 +1299,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1280,25 +1328,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1309,25 +1357,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1338,25 +1386,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1367,25 +1415,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1396,25 +1444,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1425,25 +1473,25 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1454,25 +1502,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1483,25 +1531,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1512,25 +1560,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1541,25 +1589,25 @@
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1570,25 +1618,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1599,25 +1647,25 @@
         <v>2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1628,25 +1676,25 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1657,25 +1705,25 @@
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1686,25 +1734,25 @@
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1715,25 +1763,25 @@
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1744,25 +1792,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1773,25 +1821,25 @@
         <v>100</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="H22" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1802,25 +1850,25 @@
         <v>200</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="H23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="I23" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1831,25 +1879,25 @@
         <v>300</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="H24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="I24" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1860,25 +1908,25 @@
         <v>301</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1889,25 +1937,25 @@
         <v>400</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1918,25 +1966,25 @@
         <v>401</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -1947,25 +1995,25 @@
         <v>402</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>85</v>
-      </c>
       <c r="G28" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -1976,25 +2024,25 @@
         <v>403</v>
       </c>
       <c r="C29" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>87</v>
-      </c>
       <c r="H29" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2005,25 +2053,25 @@
         <v>404</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2034,25 +2082,25 @@
         <v>405</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2063,25 +2111,25 @@
         <v>406</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2092,25 +2140,25 @@
         <v>407</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2121,25 +2169,25 @@
         <v>408</v>
       </c>
       <c r="C34" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="H34" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2150,25 +2198,25 @@
         <v>409</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2179,25 +2227,25 @@
         <v>410</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2208,25 +2256,25 @@
         <v>411</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2237,25 +2285,25 @@
         <v>412</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2266,25 +2314,25 @@
         <v>413</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2295,25 +2343,25 @@
         <v>414</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -2324,25 +2372,25 @@
         <v>415</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2353,25 +2401,25 @@
         <v>500</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2382,25 +2430,25 @@
         <v>501</v>
       </c>
       <c r="C43" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>122</v>
-      </c>
       <c r="F43" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2411,25 +2459,25 @@
         <v>502</v>
       </c>
       <c r="C44" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>124</v>
-      </c>
       <c r="H44" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2440,30 +2488,30 @@
         <v>600</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2474,25 +2522,25 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H48" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2503,30 +2551,30 @@
         <v>2</v>
       </c>
       <c r="C49" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="I49" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B51" s="1"/>
     </row>
@@ -2538,25 +2586,25 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H52" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I52" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2567,25 +2615,25 @@
         <v>2</v>
       </c>
       <c r="C53" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="F53" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2596,25 +2644,25 @@
         <v>2</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="I54" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2625,25 +2673,25 @@
         <v>2</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2654,25 +2702,25 @@
         <v>2</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="I56" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2683,25 +2731,25 @@
         <v>2</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="I57" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2712,25 +2760,25 @@
         <v>2</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2741,25 +2789,25 @@
         <v>2</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2770,25 +2818,25 @@
         <v>2</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2799,25 +2847,25 @@
         <v>2</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2828,25 +2876,25 @@
         <v>2</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2857,25 +2905,25 @@
         <v>2</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2886,25 +2934,25 @@
         <v>2</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2915,25 +2963,25 @@
         <v>2</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2944,25 +2992,25 @@
         <v>2</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2973,25 +3021,25 @@
         <v>2</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3002,25 +3050,25 @@
         <v>2</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3031,25 +3079,25 @@
         <v>2</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3060,25 +3108,25 @@
         <v>2</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3089,25 +3137,25 @@
         <v>2</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3118,25 +3166,25 @@
         <v>2</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -3147,25 +3195,25 @@
         <v>2</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3176,25 +3224,25 @@
         <v>2</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3205,25 +3253,25 @@
         <v>2</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3234,25 +3282,25 @@
         <v>2</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3263,25 +3311,25 @@
         <v>2</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -3292,25 +3340,25 @@
         <v>3</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -3321,25 +3369,25 @@
         <v>100</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -3350,25 +3398,25 @@
         <v>200</v>
       </c>
       <c r="C80" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="6" t="s">
+      <c r="H80" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="I80" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J80" s="3"/>
     </row>
@@ -3380,25 +3428,25 @@
         <v>300</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E81" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H81" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="I81" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3409,25 +3457,25 @@
         <v>301</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I82" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3438,25 +3486,25 @@
         <v>400</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3467,25 +3515,25 @@
         <v>401</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3496,25 +3544,25 @@
         <v>402</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E85" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="G85" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3525,25 +3573,25 @@
         <v>403</v>
       </c>
       <c r="C86" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="H86" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3554,25 +3602,25 @@
         <v>404</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3583,25 +3631,25 @@
         <v>405</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3612,25 +3660,25 @@
         <v>406</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I89" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3641,25 +3689,25 @@
         <v>407</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3670,25 +3718,25 @@
         <v>408</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3699,25 +3747,25 @@
         <v>409</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3728,25 +3776,25 @@
         <v>410</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I93" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3757,25 +3805,25 @@
         <v>411</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3786,25 +3834,25 @@
         <v>412</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3815,25 +3863,25 @@
         <v>413</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I96" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3844,30 +3892,30 @@
         <v>414</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B98" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C98" s="17"/>
     </row>
@@ -3879,25 +3927,25 @@
         <v>500</v>
       </c>
       <c r="C99" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G99" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D99" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F99" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>177</v>
-      </c>
       <c r="H99" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I99" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3908,30 +3956,30 @@
         <v>600</v>
       </c>
       <c r="C100" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C102" s="26"/>
     </row>
@@ -3943,25 +3991,25 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="H103" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I103" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3972,25 +4020,25 @@
         <v>2</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="H104" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4001,25 +4049,25 @@
         <v>2</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F105" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G105" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="I105" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4030,25 +4078,25 @@
         <v>2</v>
       </c>
       <c r="C106" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="I106" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4059,25 +4107,25 @@
         <v>2</v>
       </c>
       <c r="C107" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="I107" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4088,25 +4136,25 @@
         <v>2</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4117,25 +4165,25 @@
         <v>2</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4146,25 +4194,25 @@
         <v>2</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4175,25 +4223,25 @@
         <v>2</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4204,25 +4252,25 @@
         <v>2</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4233,25 +4281,25 @@
         <v>2</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4262,25 +4310,25 @@
         <v>2</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4291,25 +4339,25 @@
         <v>2</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4320,25 +4368,25 @@
         <v>2</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4349,25 +4397,25 @@
         <v>2</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4378,25 +4426,25 @@
         <v>2</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4407,25 +4455,25 @@
         <v>2</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4436,25 +4484,25 @@
         <v>2</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4465,25 +4513,25 @@
         <v>2</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4494,25 +4542,25 @@
         <v>2</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4523,25 +4571,25 @@
         <v>2</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4552,25 +4600,25 @@
         <v>2</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4581,25 +4629,25 @@
         <v>2</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4610,25 +4658,25 @@
         <v>2</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4639,25 +4687,25 @@
         <v>2</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4668,25 +4716,25 @@
         <v>2</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4697,25 +4745,25 @@
         <v>3</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F129" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4726,25 +4774,25 @@
         <v>100</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4755,25 +4803,25 @@
         <v>200</v>
       </c>
       <c r="C131" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D131" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="6" t="s">
+      <c r="H131" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F131" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="I131" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4784,25 +4832,25 @@
         <v>300</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E132" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H132" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F132" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="I132" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4813,25 +4861,25 @@
         <v>301</v>
       </c>
       <c r="C133" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4842,25 +4890,25 @@
         <v>400</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I134" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4871,25 +4919,25 @@
         <v>401</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I135" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4900,25 +4948,25 @@
         <v>402</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E136" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F136" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F136" s="17" t="s">
-        <v>85</v>
-      </c>
       <c r="G136" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I136" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4929,25 +4977,25 @@
         <v>403</v>
       </c>
       <c r="C137" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F137" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="16" t="s">
-        <v>87</v>
-      </c>
       <c r="H137" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I137" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4958,25 +5006,25 @@
         <v>404</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4987,25 +5035,25 @@
         <v>405</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I139" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5016,25 +5064,25 @@
         <v>406</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I140" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5045,25 +5093,25 @@
         <v>407</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I141" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5074,25 +5122,25 @@
         <v>408</v>
       </c>
       <c r="C142" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F142" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D142" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="F142" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="H142" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I142" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5103,25 +5151,25 @@
         <v>409</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I143" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5132,25 +5180,25 @@
         <v>410</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G144" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I144" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5161,25 +5209,25 @@
         <v>411</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I145" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5190,25 +5238,25 @@
         <v>412</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G146" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H146" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I146" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5219,25 +5267,25 @@
         <v>413</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5248,25 +5296,25 @@
         <v>414</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G148" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I148" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5277,30 +5325,30 @@
         <v>415</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B150" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C150" s="17"/>
     </row>
@@ -5312,25 +5360,25 @@
         <v>500</v>
       </c>
       <c r="C151" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F151" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G151" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D151" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F151" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G151" s="16" t="s">
-        <v>177</v>
-      </c>
       <c r="H151" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I151" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5341,25 +5389,25 @@
         <v>600</v>
       </c>
       <c r="C152" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G152" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H152" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I152" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Book 3.xlsx
+++ b/Book 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A59CD5-3C31-4F8C-BE5B-E297E610CD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E4F392-86B5-481B-9599-D9E867DD2F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{32950DC5-27BC-4A9B-A4E5-5B9A08C53B4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="206">
   <si>
     <t xml:space="preserve">Functionality id </t>
   </si>
@@ -42,9 +42,15 @@
     <t>Test case name</t>
   </si>
   <si>
+    <t>precondtioni</t>
+  </si>
+  <si>
     <t>expected result</t>
   </si>
   <si>
+    <t>Actual resulat</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
@@ -249,6 +255,9 @@
     <t>its not to open this page</t>
   </si>
   <si>
+    <t xml:space="preserve">check to cloce button </t>
+  </si>
+  <si>
     <t xml:space="preserve">1)https://www.saucedemo.com/ 2)press enter key                                  3)click on  login button                                     4) cilck  on side menu                          5) click on close  button </t>
   </si>
   <si>
@@ -630,6 +639,9 @@
     <t>1)https://www.saucedemo.com/ 2)press enter key                                  3)click on  login button                                                                   4) click on name of product               5) click on remove button</t>
   </si>
   <si>
+    <t xml:space="preserve">1)https://www.saucedemo.com/ 2)press enter key                                  3)click on  login button                                                  4)  click on name of productdetils              5) click on remove nutton     </t>
+  </si>
+  <si>
     <t>1)https://www.saucedemo.com/ 2)press enter key                                  3)click on  login button                                                      4) click on image detils                                   5) click on remove</t>
   </si>
   <si>
@@ -640,66 +652,6 @@
   </si>
   <si>
     <t xml:space="preserve">1)https://www.saucedemo.com/ 2)press enter key                                  3)click on  login button                       4)click on name of  produt page                                               5) click  remove button    </t>
-  </si>
-  <si>
-    <t>preconditionl</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>check login button with null/  balnk value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">its disply proper validation message </t>
-  </si>
-  <si>
-    <t>not to display proper validation message it also password in red color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as per expected Result but not to disply proper details </t>
-  </si>
-  <si>
-    <t xml:space="preserve">check  close button </t>
-  </si>
-  <si>
-    <t>its must be clicking on close button</t>
-  </si>
-  <si>
-    <t>its must be open add to card page</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> remove button must be proper working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  click finish button&amp;order  must be proper working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">back home it must be proper working </t>
-  </si>
-  <si>
-    <t>Browser,internet webside must be in working condition</t>
-  </si>
-  <si>
-    <t>Browser,internet and webside must be in working condition</t>
-  </si>
-  <si>
-    <t>Browser,interne  and webside must be in working condition</t>
-  </si>
-  <si>
-    <t>not to dispaly proper validation message it also password in red color</t>
-  </si>
-  <si>
-    <t>not to display proper validation message it also user name  in red color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not to display proper validation  message and also some message inside textbox </t>
-  </si>
-  <si>
-    <t xml:space="preserve">not to disply proper validation message  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)https://www.saucedemo.com/ 2)press enter key                                  3)click on  login button                                                  4)  click on name of product detils              5) click on remove nutton     </t>
   </si>
 </sst>
 </file>
@@ -1187,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FD45AC-D7AA-45A2-97FE-DEDF060189A8}">
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1157,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1214,22 +1166,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -1241,25 +1193,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1270,25 +1222,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1299,25 +1251,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1328,25 +1280,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1357,25 +1309,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1386,25 +1338,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1415,25 +1367,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1444,25 +1396,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1473,25 +1425,25 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1502,25 +1454,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1531,25 +1483,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1560,25 +1512,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1589,25 +1541,25 @@
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1618,25 +1570,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1647,25 +1599,25 @@
         <v>2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1676,25 +1628,25 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1705,25 +1657,25 @@
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1734,25 +1686,25 @@
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1763,25 +1715,25 @@
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1792,25 +1744,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1821,25 +1773,25 @@
         <v>100</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="H22" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1850,25 +1802,25 @@
         <v>200</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1879,25 +1831,25 @@
         <v>300</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1908,25 +1860,25 @@
         <v>301</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1937,25 +1889,25 @@
         <v>400</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1966,25 +1918,25 @@
         <v>401</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -1995,25 +1947,25 @@
         <v>402</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2024,25 +1976,25 @@
         <v>403</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2053,25 +2005,25 @@
         <v>404</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2082,25 +2034,25 @@
         <v>405</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2111,25 +2063,25 @@
         <v>406</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2140,25 +2092,25 @@
         <v>407</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2169,25 +2121,25 @@
         <v>408</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2198,25 +2150,25 @@
         <v>409</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2227,25 +2179,25 @@
         <v>410</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2256,25 +2208,25 @@
         <v>411</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2285,25 +2237,25 @@
         <v>412</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2314,25 +2266,25 @@
         <v>413</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2343,25 +2295,25 @@
         <v>414</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -2372,25 +2324,25 @@
         <v>415</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2401,25 +2353,25 @@
         <v>500</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2430,25 +2382,25 @@
         <v>501</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2459,25 +2411,25 @@
         <v>502</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2488,30 +2440,30 @@
         <v>600</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2522,25 +2474,25 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2551,30 +2503,30 @@
         <v>2</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B51" s="1"/>
     </row>
@@ -2586,25 +2538,25 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I52" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2615,25 +2567,25 @@
         <v>2</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F53" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="H53" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2644,25 +2596,25 @@
         <v>2</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2673,25 +2625,25 @@
         <v>2</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F55" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="I55" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2702,25 +2654,25 @@
         <v>2</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2731,25 +2683,25 @@
         <v>2</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2760,25 +2712,25 @@
         <v>2</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2789,25 +2741,25 @@
         <v>2</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2818,25 +2770,25 @@
         <v>2</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2847,25 +2799,25 @@
         <v>2</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2876,25 +2828,25 @@
         <v>2</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2905,25 +2857,25 @@
         <v>2</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2934,25 +2886,25 @@
         <v>2</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2963,25 +2915,25 @@
         <v>2</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2992,25 +2944,25 @@
         <v>2</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3021,25 +2973,25 @@
         <v>2</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3050,25 +3002,25 @@
         <v>2</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3079,25 +3031,25 @@
         <v>2</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3108,25 +3060,25 @@
         <v>2</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3137,25 +3089,25 @@
         <v>2</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3166,25 +3118,25 @@
         <v>2</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -3195,25 +3147,25 @@
         <v>2</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3224,25 +3176,25 @@
         <v>2</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3253,25 +3205,25 @@
         <v>2</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3282,25 +3234,25 @@
         <v>2</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3311,25 +3263,25 @@
         <v>2</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -3340,25 +3292,25 @@
         <v>3</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -3369,25 +3321,25 @@
         <v>100</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -3398,25 +3350,25 @@
         <v>200</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J80" s="3"/>
     </row>
@@ -3428,25 +3380,25 @@
         <v>300</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3457,25 +3409,25 @@
         <v>301</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I82" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3486,25 +3438,25 @@
         <v>400</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3515,25 +3467,25 @@
         <v>401</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3544,25 +3496,25 @@
         <v>402</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3573,25 +3525,25 @@
         <v>403</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3602,25 +3554,25 @@
         <v>404</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3631,25 +3583,25 @@
         <v>405</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3660,25 +3612,25 @@
         <v>406</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I89" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3689,25 +3641,25 @@
         <v>407</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3718,25 +3670,25 @@
         <v>408</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3747,25 +3699,25 @@
         <v>409</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3776,25 +3728,25 @@
         <v>410</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I93" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3805,25 +3757,25 @@
         <v>411</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3834,25 +3786,25 @@
         <v>412</v>
       </c>
       <c r="C95" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="6" t="s">
+      <c r="G95" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H95" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>165</v>
-      </c>
       <c r="I95" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3863,25 +3815,25 @@
         <v>413</v>
       </c>
       <c r="C96" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F96" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D96" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F96" s="17" t="s">
-        <v>96</v>
-      </c>
       <c r="G96" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I96" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3892,30 +3844,30 @@
         <v>414</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B98" s="25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C98" s="17"/>
     </row>
@@ -3927,25 +3879,25 @@
         <v>500</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I99" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3956,30 +3908,30 @@
         <v>600</v>
       </c>
       <c r="C100" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C102" s="26"/>
     </row>
@@ -3991,25 +3943,25 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4020,25 +3972,25 @@
         <v>2</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4049,25 +4001,25 @@
         <v>2</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4078,25 +4030,25 @@
         <v>2</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4107,25 +4059,25 @@
         <v>2</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4136,25 +4088,25 @@
         <v>2</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F108" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G108" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="I108" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4165,25 +4117,25 @@
         <v>2</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4194,25 +4146,25 @@
         <v>2</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4223,25 +4175,25 @@
         <v>2</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4252,25 +4204,25 @@
         <v>2</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4281,25 +4233,25 @@
         <v>2</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4310,25 +4262,25 @@
         <v>2</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4339,25 +4291,25 @@
         <v>2</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4368,25 +4320,25 @@
         <v>2</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4397,25 +4349,25 @@
         <v>2</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4426,25 +4378,25 @@
         <v>2</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4455,25 +4407,25 @@
         <v>2</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4484,25 +4436,25 @@
         <v>2</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4513,25 +4465,25 @@
         <v>2</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4542,25 +4494,25 @@
         <v>2</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4571,25 +4523,25 @@
         <v>2</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4600,25 +4552,25 @@
         <v>2</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4629,25 +4581,25 @@
         <v>2</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4658,25 +4610,25 @@
         <v>2</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4687,25 +4639,25 @@
         <v>2</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4716,25 +4668,25 @@
         <v>2</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4745,25 +4697,25 @@
         <v>3</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F129" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4774,25 +4726,25 @@
         <v>100</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4803,25 +4755,25 @@
         <v>200</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4832,25 +4784,25 @@
         <v>300</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4861,25 +4813,25 @@
         <v>301</v>
       </c>
       <c r="C133" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4890,25 +4842,25 @@
         <v>400</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I134" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4919,25 +4871,25 @@
         <v>401</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I135" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4948,25 +4900,25 @@
         <v>402</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F136" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I136" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4977,25 +4929,25 @@
         <v>403</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I137" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5006,25 +4958,25 @@
         <v>404</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5035,25 +4987,25 @@
         <v>405</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I139" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5064,25 +5016,25 @@
         <v>406</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I140" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5093,25 +5045,25 @@
         <v>407</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I141" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5122,25 +5074,25 @@
         <v>408</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I142" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5151,25 +5103,25 @@
         <v>409</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I143" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5180,25 +5132,25 @@
         <v>410</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G144" s="16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I144" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5209,25 +5161,25 @@
         <v>411</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I145" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5238,25 +5190,25 @@
         <v>412</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G146" s="16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H146" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I146" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5267,25 +5219,25 @@
         <v>413</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5296,25 +5248,25 @@
         <v>414</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G148" s="16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I148" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5325,30 +5277,30 @@
         <v>415</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B150" s="25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C150" s="17"/>
     </row>
@@ -5360,25 +5312,25 @@
         <v>500</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H151" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I151" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5389,25 +5341,25 @@
         <v>600</v>
       </c>
       <c r="C152" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G152" s="16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H152" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I152" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
